--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1729037.75089524</v>
+        <v>1835111.349048083</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10167918.13238795</v>
+        <v>10183070.04751568</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>127.4895151583772</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>92.47445699814261</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>51.50563879088853</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>249.6552926511238</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>149.9704787611684</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>33.82128629323026</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>98.98102224012344</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>80.00124118081825</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>380.5616406852</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.76195975981727</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>155.0462988210297</v>
       </c>
       <c r="H10" t="n">
-        <v>50.71093418697623</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>146.185049953102</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>114.5157480654943</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2369,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>96.02642072444083</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>236.9211256744969</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>52.10645541514077</v>
+        <v>98.42683230404793</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346629</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>34.69211367164815</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>48.4745767553167</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>215.8306979277644</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4183,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>119.3168020713731</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>657.3836285604871</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>246.3977237708795</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>3121.906610713899</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>3121.906610713899</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>3121.906610713899</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1798.734238163265</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>996.7496307124713</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C4" t="n">
-        <v>827.8134477845645</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D4" t="n">
-        <v>677.6968083722287</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E4" t="n">
-        <v>529.7837147898356</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.739181610489</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7496307124713</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>996.7496307124713</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>1407.319888150873</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.105239813979</v>
+        <v>1038.357371210461</v>
       </c>
       <c r="D5" t="n">
-        <v>1610.105239813979</v>
+        <v>680.0916726037105</v>
       </c>
       <c r="E5" t="n">
-        <v>1224.316987215735</v>
+        <v>680.0916726037105</v>
       </c>
       <c r="F5" t="n">
-        <v>813.3310824261271</v>
+        <v>269.105767814103</v>
       </c>
       <c r="G5" t="n">
-        <v>398.2586322711235</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>100.6750318798908</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818512</v>
+        <v>1793.919728214994</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>861.9037188836091</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>450.9178140940016</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>215.0609594592686</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="C10" t="n">
-        <v>215.0609594592686</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="D10" t="n">
-        <v>215.0609594592686</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="E10" t="n">
-        <v>215.0609594592686</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="F10" t="n">
-        <v>215.0609594592686</v>
+        <v>223.1245394837286</v>
       </c>
       <c r="G10" t="n">
-        <v>215.0609594592686</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4996,16 +4998,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.7094242895083</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,61 +5412,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
         <v>2273.199413378161</v>
@@ -5510,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5834,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="29">
@@ -6446,52 +6448,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,13 +6536,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
@@ -6549,13 +6551,13 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.376371837086</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>887.4401889091791</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300683</v>
+        <v>737.3235494968434</v>
       </c>
       <c r="E31" t="n">
-        <v>228.5361496476752</v>
+        <v>589.4104559144503</v>
       </c>
       <c r="F31" t="n">
-        <v>228.5361496476752</v>
+        <v>442.5205084165399</v>
       </c>
       <c r="G31" t="n">
-        <v>228.5361496476752</v>
+        <v>275.3244091314198</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1238.024836667326</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311365</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>284.4927131505381</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>142.7808819927362</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613763</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1979.051739499926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1689.976512844124</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1689.976512844124</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1400.559342807163</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1172.569791909146</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>951.777212765616</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7645,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,19 +7733,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2259.395357538347</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.320130882545</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.635642676658</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1426.218472639697</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>114.3555089013343</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.9994244361422</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.09972495271805</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>71.22040037418701</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>49.60187266209411</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>88.18825743108312</v>
+        <v>41.86788054217595</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>1.574752399523817</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>98.0886482559152</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>890549.1741492649</v>
+        <v>898273.679900657</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>890549.1741492649</v>
+        <v>898273.679900657</v>
       </c>
     </row>
     <row r="4">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
@@ -26320,40 +26322,40 @@
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907535</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907535</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="O2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309559</v>
+        <v>135522.136976983</v>
       </c>
       <c r="C4" t="n">
+        <v>135522.136976983</v>
+      </c>
+      <c r="D4" t="n">
         <v>87914.29116309558</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26442,22 +26444,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744348</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-970389.78279369</v>
+        <v>-789008.4983343561</v>
       </c>
       <c r="C6" t="n">
-        <v>358354.9629339026</v>
+        <v>325743.2852415637</v>
       </c>
       <c r="D6" t="n">
-        <v>358354.9629339026</v>
+        <v>165727.8224935651</v>
       </c>
       <c r="E6" t="n">
-        <v>109561.7067677472</v>
+        <v>109561.7067677471</v>
       </c>
       <c r="F6" t="n">
-        <v>434974.1685751028</v>
+        <v>434974.1685751029</v>
       </c>
       <c r="G6" t="n">
-        <v>434974.1685751028</v>
+        <v>434974.1685751026</v>
       </c>
       <c r="H6" t="n">
         <v>434974.1685751024</v>
       </c>
       <c r="I6" t="n">
-        <v>434974.1685751022</v>
+        <v>434974.1685751028</v>
       </c>
       <c r="J6" t="n">
-        <v>217442.9661778249</v>
+        <v>267368.9907651198</v>
       </c>
       <c r="K6" t="n">
-        <v>434974.1685751025</v>
+        <v>434974.1685751023</v>
       </c>
       <c r="L6" t="n">
-        <v>434974.1685751022</v>
+        <v>386680.1985669118</v>
       </c>
       <c r="M6" t="n">
-        <v>349919.140639591</v>
+        <v>349919.1406395906</v>
       </c>
       <c r="N6" t="n">
-        <v>434974.1685751028</v>
+        <v>434974.1685751023</v>
       </c>
       <c r="O6" t="n">
-        <v>434974.1685751028</v>
+        <v>434974.1685751024</v>
       </c>
       <c r="P6" t="n">
-        <v>434974.1685751029</v>
+        <v>434974.1685751023</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>284.0581876145768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>111.4435131414775</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>93.91540923204272</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>2.482350672704229</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>261.5772240117856</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>7.755643479695692</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>80.85095794181386</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>172.1364021430097</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>30.36008496825349</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>319.4759788962363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>10.97950943799856</v>
       </c>
       <c r="H10" t="n">
-        <v>94.04408072734455</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30238,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>419.3361492447676</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32956,7 +32958,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33023,19 +33025,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33506,10 +33508,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948333</v>
       </c>
       <c r="N33" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,7 +33745,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.586862646002</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>409.0029787211721</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34451,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>618.3341264639751</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>351.4708102230528</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>364.0350380248667</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36917,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37154,10 +37156,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>91.804909272815</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>266.8689447991538</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>476.2000925419567</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>211.4890361370313</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1835111.349048083</v>
+        <v>1831015.707543318</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>127.4895151583772</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>260.0981358498384</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>118.9038581320903</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>249.6552926511238</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>149.9704787611684</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>23.47240143010609</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.98102224012344</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>79.76470074482921</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>380.5616406852</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>155.0462988210297</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
-        <v>146.185049953102</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>60.11729550773232</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.26260713376574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>236.9211256744969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>98.42683230404793</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V34" t="n">
-        <v>137.9792024346629</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.69211367164815</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>146.9393756113372</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>48.4745767553167</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099143</v>
+        <v>736.6224273402293</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.171881158731</v>
+        <v>736.6224273402293</v>
       </c>
       <c r="D2" t="n">
-        <v>1043.171881158731</v>
+        <v>736.6224273402293</v>
       </c>
       <c r="E2" t="n">
-        <v>657.3836285604871</v>
+        <v>736.6224273402293</v>
       </c>
       <c r="F2" t="n">
-        <v>246.3977237708795</v>
+        <v>729.6769265910258</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>313.9721763153146</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,46 +4336,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400156</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400156</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163265</v>
+        <v>736.6224273402293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>483.0441129489467</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>305.0150268210028</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1516.341212870366</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1516.341212870366</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1227.222875374204</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.269056790534</v>
+        <v>972.5383871683166</v>
       </c>
       <c r="W4" t="n">
-        <v>1384.269056790534</v>
+        <v>683.1212171313559</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>455.1316662333386</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1407.319888150873</v>
+        <v>1287.435190625613</v>
       </c>
       <c r="C5" t="n">
-        <v>1038.357371210461</v>
+        <v>1287.435190625613</v>
       </c>
       <c r="D5" t="n">
-        <v>680.0916726037105</v>
+        <v>1287.435190625613</v>
       </c>
       <c r="E5" t="n">
-        <v>680.0916726037105</v>
+        <v>901.6469380273684</v>
       </c>
       <c r="F5" t="n">
-        <v>269.105767814103</v>
+        <v>490.6610332377608</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>74.95628296204967</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>74.95628296204967</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,13 +4585,13 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190806</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y5" t="n">
-        <v>1793.919728214994</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4643,31 +4643,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>168.00081891452</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605191</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919908</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074498</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422265</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481853</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D8" t="n">
-        <v>1247.691971481853</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>861.9037188836091</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>450.9178140940016</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,10 +4816,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723278</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486387</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.0144869816389</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>370.0144869816389</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>370.0144869816389</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>370.0144869816389</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>223.1245394837286</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.0144869816389</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192596</v>
@@ -5044,46 +5044,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5190,46 +5190,46 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
         <v>2049.400878868273</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5430,49 +5430,49 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2386.238542663355</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5746,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2415.384692536053</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2415.384692536053</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2415.384692536053</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5983,43 +5983,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1056.376371837086</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>887.4401889091791</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>737.3235494968434</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>589.4104559144503</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>442.5205084165399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>275.3244091314198</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1238.024836667326</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385791</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>2726.91413360155</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>2817.800993781637</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>3445.398957336244</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4401.757925742791</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990607</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7019,25 +7019,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7192,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180513</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>599.6019060180513</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>451.6888124356582</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>451.6888124356582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>284.4927131505381</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>142.7808819927362</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.030432851515</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>114.3555089013343</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
-        <v>139.9994244361422</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>6.257951202389371</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.11263957635595</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>49.60187266209411</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>41.86788054217595</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V34" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>32.79125956324884</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="K2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744326</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744335</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26527,43 +26527,43 @@
         <v>325743.2852415637</v>
       </c>
       <c r="D6" t="n">
-        <v>165727.8224935651</v>
+        <v>165727.822493565</v>
       </c>
       <c r="E6" t="n">
-        <v>109561.7067677471</v>
+        <v>109214.3275133903</v>
       </c>
       <c r="F6" t="n">
-        <v>434974.1685751029</v>
+        <v>434626.7893207459</v>
       </c>
       <c r="G6" t="n">
-        <v>434974.1685751026</v>
+        <v>434626.7893207456</v>
       </c>
       <c r="H6" t="n">
-        <v>434974.1685751024</v>
+        <v>434626.7893207459</v>
       </c>
       <c r="I6" t="n">
-        <v>434974.1685751028</v>
+        <v>434626.7893207454</v>
       </c>
       <c r="J6" t="n">
-        <v>267368.9907651198</v>
+        <v>267021.6115107628</v>
       </c>
       <c r="K6" t="n">
-        <v>434974.1685751023</v>
+        <v>434626.7893207454</v>
       </c>
       <c r="L6" t="n">
-        <v>386680.1985669118</v>
+        <v>386332.8193125549</v>
       </c>
       <c r="M6" t="n">
-        <v>349919.1406395906</v>
+        <v>349571.7613852336</v>
       </c>
       <c r="N6" t="n">
-        <v>434974.1685751023</v>
+        <v>434626.7893207454</v>
       </c>
       <c r="O6" t="n">
-        <v>434974.1685751024</v>
+        <v>434626.7893207453</v>
       </c>
       <c r="P6" t="n">
-        <v>434974.1685751023</v>
+        <v>434626.7893207456</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>284.0581876145768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>40.92041671256698</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>75.75860222964711</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.482350672704229</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>261.5772240117856</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>42.23751124236438</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.85095794181386</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>274.9183408758537</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>30.36008496825349</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.97950943799856</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32551,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>419.3361492447676</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>233.9389431948333</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,10 +33739,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34152,10 +34152,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34447,28 +34447,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>351.4708102230528</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>373.1786946453892</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,7 +34795,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065827</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,13 +35032,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>364.0350380248667</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060407</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35965,22 +35965,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>281.4947102704086</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>91.804909272815</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38095,28 +38095,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.4890361370313</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1831015.707543318</v>
+        <v>1832776.237846104</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>260.0981358498384</v>
+        <v>260.0981358498379</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>118.9038581320903</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.05561470199503</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>23.47240143010609</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>214.2026470839412</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>79.76470074482921</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>79.76470074482832</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>112.7304175246782</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>60.11729550773232</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.1628130171261</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437134</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428483</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146.9393756113372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>736.6224273402293</v>
+        <v>736.6224273402288</v>
       </c>
       <c r="C2" t="n">
-        <v>736.6224273402293</v>
+        <v>736.6224273402288</v>
       </c>
       <c r="D2" t="n">
-        <v>736.6224273402293</v>
+        <v>736.6224273402288</v>
       </c>
       <c r="E2" t="n">
-        <v>736.6224273402293</v>
+        <v>736.6224273402288</v>
       </c>
       <c r="F2" t="n">
-        <v>729.6769265910258</v>
+        <v>729.6769265910253</v>
       </c>
       <c r="G2" t="n">
-        <v>313.9721763153146</v>
+        <v>313.9721763153142</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4363,19 +4363,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
         <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>736.6224273402293</v>
+        <v>736.6224273402288</v>
       </c>
     </row>
     <row r="3">
@@ -4403,16 +4403,16 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489467</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
         <v>1117.223096727985</v>
@@ -4421,7 +4421,7 @@
         <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.1316662333386</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>455.1316662333386</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>305.0150268210028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.341212870366</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.341212870366</v>
+        <v>1613.157620375513</v>
       </c>
       <c r="U4" t="n">
-        <v>1227.222875374204</v>
+        <v>1324.03928287935</v>
       </c>
       <c r="V4" t="n">
-        <v>972.5383871683166</v>
+        <v>1069.354794673463</v>
       </c>
       <c r="W4" t="n">
-        <v>683.1212171313559</v>
+        <v>779.9376246365028</v>
       </c>
       <c r="X4" t="n">
-        <v>455.1316662333386</v>
+        <v>551.9480737384855</v>
       </c>
       <c r="Y4" t="n">
-        <v>455.1316662333386</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625613</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="C5" t="n">
-        <v>1287.435190625613</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.435190625613</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>901.6469380273684</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>490.6610332377608</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>74.95628296204967</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>74.95628296204967</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2345.973018214356</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2014.910130870785</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>1662.141475600671</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665546</v>
+        <v>1288.675717339592</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>898.5363853637798</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>168.00081891452</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380228</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694945</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.50962791956</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,25 +5123,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2333.093974969474</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5451,37 +5451,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2386.238542663355</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2203.383708318259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5597,13 +5597,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560546</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,34 +5734,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,19 +6007,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,19 +6536,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
         <v>1522.21291626627</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="32">
@@ -6694,37 +6694,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
         <v>776.1751066403293</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="D34" t="n">
         <v>261.0127623330919</v>
@@ -6849,61 +6849,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,16 +7013,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
         <v>1522.21291626627</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,16 +7250,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
         <v>1522.21291626627</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7551,16 +7551,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5911984019044</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-5.20845298070512e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>68.29586847696642</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6.257951202385101</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.257951202389371</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>83.27114962944307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409392752</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>69.70496293143134</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583916</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907538</v>
@@ -26340,22 +26340,22 @@
         <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551181</v>
@@ -26423,7 +26423,7 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309562</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26432,13 +26432,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789008.4983343561</v>
+        <v>-789008.4983343559</v>
       </c>
       <c r="C6" t="n">
-        <v>325743.2852415637</v>
+        <v>325743.2852415638</v>
       </c>
       <c r="D6" t="n">
-        <v>165727.822493565</v>
+        <v>165727.8224935647</v>
       </c>
       <c r="E6" t="n">
-        <v>109214.3275133903</v>
+        <v>109526.9688423119</v>
       </c>
       <c r="F6" t="n">
-        <v>434626.7893207459</v>
+        <v>434939.4306496669</v>
       </c>
       <c r="G6" t="n">
-        <v>434626.7893207456</v>
+        <v>434939.430649667</v>
       </c>
       <c r="H6" t="n">
-        <v>434626.7893207459</v>
+        <v>434939.4306496673</v>
       </c>
       <c r="I6" t="n">
-        <v>434626.7893207454</v>
+        <v>434939.4306496667</v>
       </c>
       <c r="J6" t="n">
-        <v>267021.6115107628</v>
+        <v>267334.2528396841</v>
       </c>
       <c r="K6" t="n">
-        <v>434626.7893207454</v>
+        <v>434939.4306496673</v>
       </c>
       <c r="L6" t="n">
-        <v>386332.8193125549</v>
+        <v>386645.4606414764</v>
       </c>
       <c r="M6" t="n">
-        <v>349571.7613852336</v>
+        <v>349884.402714155</v>
       </c>
       <c r="N6" t="n">
-        <v>434626.7893207454</v>
+        <v>434939.430649667</v>
       </c>
       <c r="O6" t="n">
-        <v>434626.7893207453</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="P6" t="n">
-        <v>434626.7893207456</v>
+        <v>434939.430649667</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973556</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>40.92041671256698</v>
+        <v>40.92041671256743</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>75.75860222964711</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>197.6930812952169</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>42.23751124236438</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>36.84260304452081</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>274.9183408758537</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>306.4732379112253</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-4.796661474883757e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>351.1157147121651</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>549.9198891312103</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>549.9198891312103</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>373.1786946453892</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>562.7107934893642</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065827</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35819,7 +35819,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060407</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2742757378061</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>407.3236446867659</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999014</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>407.3236446867659</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
